--- a/biology/Botanique/Narcisse_d'Asso/Narcisse_d'Asso.xlsx
+++ b/biology/Botanique/Narcisse_d'Asso/Narcisse_d'Asso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Narcisse_d%27Asso</t>
+          <t>Narcisse_d'Asso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narcissus assoanus
 Le narcisse d'Asso (Narcissus assoanus, syn. N. requienii M.J.Roemer, N. juncifolius auct. non Salisb.), parfois appelé aussi narcisse à feuilles de jonc, est une petite plante printanière à fleurs jaunes poussant souvent en abondance dans les collines pierreuses calcaires des régions méditerranéennes (garrigue), jusqu'à 1200 mètres. Il appartient au genre Narcissus et à la famille des Amaryllidacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Narcisse_d%27Asso</t>
+          <t>Narcisse_d'Asso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante ne dépassant pas 20 cm, à deux ou quatre feuilles basales vertes, linéaires, filiformes. La tige est grêle, ne portant en principe qu'une fleur. Les six tépales et la couronne, à l'extrémité d'un long tube vert-jaune, sont exactement de la même couleur (jaune doré). La couronne, en coupe, est légèrement crénelée.
 Floraison : de mars à mai.
